--- a/CompCars_Original/SwinBase/meanStdTotal/Data_Full_XGradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_Mean_Std_Total_23_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/meanStdTotal/Data_Full_XGradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_Mean_Std_Total_23_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,685 +436,747 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivations</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsStd</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RawActivations</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RawActivationsStd</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercSegmentAreas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PercSegmentAreasStd</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RawSegmentAreas</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RawSegmentAreasStd</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>totalMean</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>totalStd</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2167298410092429</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.1499505588453643</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4509.249124977516</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3265.978311295285</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.3365718514973398</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.1297501199520598</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>16887.82922073052</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>6510.342018714562</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>20608.259765625</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2633.078125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.00658874071931069</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.005769990334786724</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>136.3687429415014</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>121.6360395327678</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006693558601720179</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.004806098366446045</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>335.85599639991</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>241.1507916347969</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.0166192413145307</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.03773407826386532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>353.541582520484</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>836.7071006281518</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01923960726569185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.04443256084634511</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>965.3665341633541</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2229.448173026225</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004636591544065181</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.001756632046774113</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>95.23836215117451</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>37.25738202597773</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004202819515640954</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.00134666389131458</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>210.8806720168004</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>67.57020741060069</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005029256220016713</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.001198400203500941</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>103.3163539053087</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>27.00540404484263</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.004407771227443971</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.001016391857606517</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>221.1643291082277</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>50.99847784726388</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006428742465530314</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.008229654222053857</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>132.6142335614648</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>179.6078121886928</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.00561351725119662</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.006586595087067833</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>281.6638415960399</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>330.4889950887156</v>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.00646241104973201</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.001596813619937973</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>132.5014485927301</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>34.65523245710376</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.005856581263861952</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.00139248484493888</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>293.8598214955374</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>69.86931957965245</v>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2665118342375448</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.09087720765601924</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5439.75651769974</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1850.018872446864</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2289109289474905</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.0693500078685135</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>11485.83477086927</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>3479.705994810524</v>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1820125294350188</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.07963027305173216</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>3778.075943532695</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1838.760915428833</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1936832406181643</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.08029188495105828</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>9718.250281257031</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4028.725619304288</v>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002519515166782318</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002968053857104084</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>51.69449337583202</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>63.07965941941649</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.001816508462775329</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.002136957096059013</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>91.1451286282157</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>107.2239592518568</v>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01968175079605235</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.008190381831851206</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>403.0931910431497</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>171.6568072360358</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.0146677320671856</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.005468790949768196</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>735.968124203105</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>274.4020546955682</v>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002576780348233062</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.004122339422302591</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>52.96288761717797</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>92.6407531372913</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.00183439196152098</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.00285999004872499</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>92.04245106127654</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>143.5028606848263</v>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01950842329213345</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.008851283883605338</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>400.2357346500599</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>186.5451282364162</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01419983133905514</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.005836323086370748</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>712.4907372684318</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>292.843347181738</v>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2333765117195384</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.0750698953573794</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>4782.59913004625</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1612.267014119472</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1511630354932985</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.04724936578759543</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>7584.756468911723</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>2370.784177758388</v>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003161683641849376</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.002046789156779374</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>65.07581544864284</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>43.81016678295834</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003833988049159126</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.00225294930019147</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>192.3741843546089</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>113.043984086405</v>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.00279460956081329</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002054310705251389</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>57.52426393275224</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>44.00471703171294</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.003205786059830067</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.002205753945581678</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>160.8535213380335</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>110.6759099735066</v>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002375477409189189</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.007222909691954309</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>5.185106331484417</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>167.4184153663829</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0001659201237684006</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.005096923365876629</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>8.325208130203254</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>255.7432268061979</v>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005118686659485535</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.03992750157146336</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>109.1164698723891</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>850.8258976316534</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.003889687883140958</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.03005831237676658</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>195.1689792244806</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1508.205881816474</v>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>5.302636151149863e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.0001765862179788922</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.1099787932812337</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3.456820861927369</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>4.324237171618065e-05</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.0005958630173925129</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>2.169729243231081</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>29.89802276068342</v>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
